--- a/php/vista/TEMP/CARGO DE INSUMOS Y MEDICAMENTOS DE PACIENTE PRIVADO.xlsx
+++ b/php/vista/TEMP/CARGO DE INSUMOS Y MEDICAMENTOS DE PACIENTE PRIVADO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
   <si>
     <t>CENTRO MEDICO MATERNAL PAEZ ALMEIDA NARANJO SOCIEDAD COLECTIVA CIVIL</t>
   </si>
@@ -42,7 +42,7 @@
         <sz val="7"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">22:42
+      <t xml:space="preserve">00:53
 </t>
     </r>
     <r>
@@ -67,7 +67,7 @@
         <sz val="7"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">23-09-2021
+      <t xml:space="preserve">24-09-2021
 </t>
     </r>
     <r>
@@ -102,16 +102,16 @@
     <t>Paciente:</t>
   </si>
   <si>
-    <t>AARON DE LA CRUZ</t>
+    <t>AGUILAR IZA ROCIO MARITZA</t>
   </si>
   <si>
     <t>Detalle:</t>
   </si>
   <si>
-    <t>Salida por Farmacia de: AARON DE LA CRUZ, centro de costos , Ficha Clinica: 17594, Categoria: MEDICAMENTOS</t>
-  </si>
-  <si>
-    <t>No.Comp:1003952</t>
+    <t>Salida de inventario para AGUILAR IZA ROCIO MARITZA con CI: 1711522050 el dia 2021-08-02</t>
+  </si>
+  <si>
+    <t>No.Comp:8003337</t>
   </si>
   <si>
     <t>CODIGO</t>
@@ -126,16 +126,43 @@
     <t>PRECIO UNI</t>
   </si>
   <si>
-    <t>UTILIDAD</t>
-  </si>
-  <si>
     <t>PRECIO TOTAL</t>
   </si>
   <si>
-    <t>01.IN.01.023</t>
-  </si>
-  <si>
-    <t>CATLON No. 22</t>
+    <t>01.IN.01.004</t>
+  </si>
+  <si>
+    <t>AGUJAS HIPODÉRMICAS 18</t>
+  </si>
+  <si>
+    <t>01.IN.01.015</t>
+  </si>
+  <si>
+    <t>CANULA NASAL ADULTO</t>
+  </si>
+  <si>
+    <t>01.IN.01.022</t>
+  </si>
+  <si>
+    <t>CATLON No. 20</t>
+  </si>
+  <si>
+    <t>01.IN.01.036</t>
+  </si>
+  <si>
+    <t>COMPRESAS QUIR 45.7X45.7cm X-RAY PAQ X 5</t>
+  </si>
+  <si>
+    <t>01.IN.01.040</t>
+  </si>
+  <si>
+    <t>ELECTRO BISTURI DESC. DI POLAR</t>
+  </si>
+  <si>
+    <t>01.IN.01.041</t>
+  </si>
+  <si>
+    <t>ELECTRODOS ADULTO</t>
   </si>
   <si>
     <t>01.IN.01.047</t>
@@ -144,31 +171,205 @@
     <t>EQUIPO DE VENOCLICIS</t>
   </si>
   <si>
+    <t>01.IN.01.054</t>
+  </si>
+  <si>
+    <t>FUNDA RECOLECTORA ORINA ADULTO</t>
+  </si>
+  <si>
+    <t>01.IN.01.060</t>
+  </si>
+  <si>
+    <t>GUANTES EXAMEN MANEJO MEDIUM</t>
+  </si>
+  <si>
+    <t>01.IN.01.061</t>
+  </si>
+  <si>
+    <t>GUANTES QUIR. No. 6.5</t>
+  </si>
+  <si>
+    <t>01.IN.01.062</t>
+  </si>
+  <si>
+    <t>GUANTES QUIR. No. 7</t>
+  </si>
+  <si>
+    <t>01.IN.01.063</t>
+  </si>
+  <si>
+    <t>GUANTES QUIR. No. 7.5</t>
+  </si>
+  <si>
+    <t>01.IN.01.068</t>
+  </si>
+  <si>
+    <t>HOJAS BISTURI No. 23</t>
+  </si>
+  <si>
+    <t>01.IN.01.069</t>
+  </si>
+  <si>
+    <t>HUMIFICADOR DE BURBUJAS</t>
+  </si>
+  <si>
+    <t>01.IN.01.072</t>
+  </si>
+  <si>
+    <t>JACKSON PRATT 100 CC.</t>
+  </si>
+  <si>
+    <t>01.IN.01.076</t>
+  </si>
+  <si>
+    <t>JERINGUILLAS DESC 3 ML</t>
+  </si>
+  <si>
+    <t>01.IN.01.077</t>
+  </si>
+  <si>
+    <t>JERINGUILLAS DESC 5 ML</t>
+  </si>
+  <si>
     <t>01.IN.01.078</t>
   </si>
   <si>
     <t>JERINGUILLAS DESC 10 ML</t>
   </si>
   <si>
-    <t>01.IN.01.26</t>
-  </si>
-  <si>
-    <t>LLAVE DE 3 VIAS CON EXTENCION</t>
-  </si>
-  <si>
-    <t>01.IN.01.268</t>
-  </si>
-  <si>
-    <t>TEGADERM IV ADVANCED PEDIATRICO /OSITO/</t>
+    <t>01.IN.01.082</t>
+  </si>
+  <si>
+    <t>LLAVE DE TRES VÍAS DISCOFIX</t>
+  </si>
+  <si>
+    <t>01.IN.01.088</t>
+  </si>
+  <si>
+    <t>MANGUERA DE SUCCION</t>
+  </si>
+  <si>
+    <t>01.IN.01.104</t>
+  </si>
+  <si>
+    <t>MICROGOTEROS</t>
+  </si>
+  <si>
+    <t>01.IN.01.115</t>
+  </si>
+  <si>
+    <t>PLACA DE ELECTRO</t>
+  </si>
+  <si>
+    <t>01.IN.01.131</t>
+  </si>
+  <si>
+    <t>SONDA FOLEY No. 16</t>
+  </si>
+  <si>
+    <t>01.IN.01.361</t>
+  </si>
+  <si>
+    <t>PICO DE SUCCION YANKAUER</t>
+  </si>
+  <si>
+    <t>01.IN.01.376</t>
+  </si>
+  <si>
+    <t>GRAPADORA PARA PIEL 35 GRAOAS REGULAR ESTERIL</t>
+  </si>
+  <si>
+    <t>01.IN.01.510</t>
+  </si>
+  <si>
+    <t>PENCAN #27 / SPINOCAN 27 PUNTA LAPIZ</t>
+  </si>
+  <si>
+    <t>01.IN.03.025</t>
+  </si>
+  <si>
+    <t>VICRYL 1 CT-1 70 CM. C. GRAL.</t>
+  </si>
+  <si>
+    <t>01.IN.03.026</t>
+  </si>
+  <si>
+    <t>VICRYL 2-0 CT-1 70 CM.</t>
+  </si>
+  <si>
+    <t>01.IN.03.029</t>
+  </si>
+  <si>
+    <t>VICRYL 3-0 SH 70 CM. GASTROIN.</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
-    <t>01.ME.01.032</t>
-  </si>
-  <si>
-    <t>ETRON (METRONIDAZOL)IV 500 MG 100ML</t>
+    <t>01.ME.01.002</t>
+  </si>
+  <si>
+    <t>METAMIZOL 1GR /2ML</t>
+  </si>
+  <si>
+    <t>01.ME.01.007</t>
+  </si>
+  <si>
+    <t>AMPICILINA + SULBACTAM 1.5 G (UNASYN)</t>
+  </si>
+  <si>
+    <t>01.ME.01.012</t>
+  </si>
+  <si>
+    <t>BUPIROP 0.5% 4 ML PESADO</t>
+  </si>
+  <si>
+    <t>01.ME.01.014</t>
+  </si>
+  <si>
+    <t>CEFAZOLINA 1 GR</t>
+  </si>
+  <si>
+    <t>01.ME.01.017</t>
+  </si>
+  <si>
+    <t>CLEXANE 60 MG.</t>
+  </si>
+  <si>
+    <t>01.ME.01.046</t>
+  </si>
+  <si>
+    <t>KETOROLACO DE 30 MG INY</t>
+  </si>
+  <si>
+    <t>01.ME.01.047</t>
+  </si>
+  <si>
+    <t>LACTATO DE RINGER 1000 ML</t>
+  </si>
+  <si>
+    <t>01.ME.01.055</t>
+  </si>
+  <si>
+    <t>OMEPRAZOL 40 MG I.V</t>
+  </si>
+  <si>
+    <t>01.ME.01.056</t>
+  </si>
+  <si>
+    <t>ONDANSENTRON AMP 8MG</t>
+  </si>
+  <si>
+    <t>01.ME.01.066</t>
+  </si>
+  <si>
+    <t>SOLUCION SALINA 0.9% 100 ML</t>
+  </si>
+  <si>
+    <t>01.ME.01.067</t>
+  </si>
+  <si>
+    <t>SOLUCION SALINA 0.9% 1000 ML</t>
   </si>
   <si>
     <t>01.ME.01.068</t>
@@ -177,16 +378,25 @@
     <t>SOLUCION SALINA 0.9% 500 ML</t>
   </si>
   <si>
-    <t>01.ME.01.119</t>
-  </si>
-  <si>
-    <t>CEFTRIAXONA FCO 1GR IM/LV</t>
-  </si>
-  <si>
-    <t>01.ME.02.001</t>
-  </si>
-  <si>
-    <t>ACETAMINOFEN TAB 500 MG X 100</t>
+    <t>01.ME.01.073</t>
+  </si>
+  <si>
+    <t>TRAMAL 100 MG. 2 ML.</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>01.ME.01.122</t>
+  </si>
+  <si>
+    <t>DEXAMETASONA 4MG / 1ML</t>
+  </si>
+  <si>
+    <t>01.ME.01.128</t>
+  </si>
+  <si>
+    <t>PARACETAMOL 1G AMPOLLAS</t>
   </si>
   <si>
     <t>Gran Total</t>
@@ -333,7 +543,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>857250</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -654,32 +864,30 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:EZ17"/>
+  <dimension ref="A1:DZ57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="true" style="0"/>
-    <col min="156" max="156" width="100" customWidth="true" style="0"/>
+    <col min="130" max="130" width="100" customWidth="true" style="0"/>
     <col min="2" max="2" width="44" customWidth="true" style="0"/>
     <col min="3" max="3" width="17" customWidth="true" style="0"/>
     <col min="4" max="4" width="70" customWidth="true" style="0"/>
-    <col min="5" max="5" width="25" customWidth="true" style="0"/>
-    <col min="6" max="6" width="17" customWidth="true" style="0"/>
+    <col min="5" max="5" width="17" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:156" customHeight="1" ht="45">
+    <row r="1" spans="1:130" customHeight="1" ht="45">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -703,7 +911,7 @@
               <sz val="7"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">22:42
+            <t xml:space="preserve">00:53
 </t>
           </r>
           <r>
@@ -728,7 +936,7 @@
               <sz val="7"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">23-09-2021
+            <t xml:space="preserve">24-09-2021
 </t>
           </r>
           <r>
@@ -758,12 +966,12 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:156">
+    <row r="2" spans="1:130">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:156">
+    <row r="3" spans="1:130">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -779,9 +987,8 @@
       <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:156">
+    </row>
+    <row r="4" spans="1:130">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -797,251 +1004,895 @@
       <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:130">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:156">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.04</v>
+      </c>
+      <c r="E5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:130">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0.94</v>
-      </c>
-      <c r="E5">
-        <v>0.25</v>
-      </c>
-      <c r="F5">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:156">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1.38</v>
+      </c>
+      <c r="E6">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:130">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0.85</v>
-      </c>
-      <c r="E6">
-        <v>0.25</v>
-      </c>
-      <c r="F6">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:156">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.98</v>
+      </c>
+      <c r="E7">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:130">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="C7">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>3.94</v>
+      </c>
+      <c r="E8">
+        <v>27.56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:130">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>6.85</v>
+      </c>
+      <c r="E9">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:130">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>0.2</v>
+      </c>
+      <c r="E10">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:130">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="D7">
+      <c r="D11">
+        <v>0.83</v>
+      </c>
+      <c r="E11">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:130">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0.75</v>
+      </c>
+      <c r="E12">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:130">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>11.28</v>
+      </c>
+      <c r="E13">
+        <v>11.28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:130">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>0.48</v>
+      </c>
+      <c r="E14">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:130">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>0.48</v>
+      </c>
+      <c r="E15">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:130">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>0.48</v>
+      </c>
+      <c r="E16">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:130">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0.16</v>
+      </c>
+      <c r="E17">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:130">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>3.5</v>
+      </c>
+      <c r="E18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:130">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>18.94</v>
+      </c>
+      <c r="E19">
+        <v>37.89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:130">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>0.09</v>
+      </c>
+      <c r="E20">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:130">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.1</v>
+      </c>
+      <c r="E21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:130">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>0.1</v>
+      </c>
+      <c r="E22">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:130">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
         <v>0.13</v>
       </c>
-      <c r="E7">
-        <v>0.25</v>
-      </c>
-      <c r="F7">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:156">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0.78</v>
-      </c>
-      <c r="E8">
+      <c r="E23">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:130">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>0.13</v>
+      </c>
+      <c r="E24">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:130">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0.51</v>
+      </c>
+      <c r="E25">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:130">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>2.81</v>
+      </c>
+      <c r="E26">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:130">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>2.13</v>
+      </c>
+      <c r="E27">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:130">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>5.61</v>
+      </c>
+      <c r="E28">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:130">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1.36</v>
+      </c>
+      <c r="E29">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:130">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1.1</v>
+      </c>
+      <c r="E30">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:130">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>7.51</v>
+      </c>
+      <c r="E31">
+        <v>7.51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:130">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>10.13</v>
+      </c>
+      <c r="E32">
+        <v>10.13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:130">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33">
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <v>1.89</v>
+      </c>
+      <c r="E33">
+        <v>17.05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:130">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>1.88</v>
+      </c>
+      <c r="E34">
+        <v>18.81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:130">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>1.88</v>
+      </c>
+      <c r="E35">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:130">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="6">
+        <v>169.51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:130">
+      <c r="A37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:130">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>0.43</v>
+      </c>
+      <c r="E38">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:130">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1.43</v>
+      </c>
+      <c r="E39">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:130">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>2.95</v>
+      </c>
+      <c r="E40">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:130">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>1.18</v>
+      </c>
+      <c r="E41">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:130">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>9.03</v>
+      </c>
+      <c r="E42">
+        <v>9.03</v>
+      </c>
+    </row>
+    <row r="43" spans="1:130">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>0.5</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:130">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>1.69</v>
+      </c>
+      <c r="E44">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="45" spans="1:130">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>7.29</v>
+      </c>
+      <c r="E45">
+        <v>14.59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:130">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1.21</v>
+      </c>
+      <c r="E46">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:130">
+      <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>1.18</v>
+      </c>
+      <c r="E47">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:130">
+      <c r="A48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1.18</v>
+      </c>
+      <c r="E48">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:130">
+      <c r="A49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1.71</v>
+      </c>
+      <c r="E49">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:130">
+      <c r="A50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>1.33</v>
+      </c>
+      <c r="E50">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:130">
+      <c r="A51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1.34</v>
+      </c>
+      <c r="E51">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:130">
+      <c r="A52" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0.38</v>
+      </c>
+      <c r="E52">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:130">
+      <c r="A53" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53">
         <v>0</v>
       </c>
-      <c r="F8">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:156">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1.96</v>
-      </c>
-      <c r="E9">
-        <v>0.25</v>
-      </c>
-      <c r="F9">
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:156">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="6">
-        <v>4.78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:156">
-      <c r="A11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:156">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1.88</v>
-      </c>
-      <c r="E12">
-        <v>0.25</v>
-      </c>
-      <c r="F12">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:156">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1.33</v>
-      </c>
-      <c r="E13">
-        <v>0.25</v>
-      </c>
-      <c r="F13">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:156">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14">
+      <c r="D53" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:130">
+      <c r="A54" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54">
         <v>2</v>
       </c>
-      <c r="D14">
-        <v>1.63</v>
-      </c>
-      <c r="E14">
-        <v>0.25</v>
-      </c>
-      <c r="F14">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:156">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>0.03</v>
-      </c>
-      <c r="E15">
-        <v>0.25</v>
-      </c>
-      <c r="F15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:156">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="6">
-        <v>6.56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:156">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="6">
-        <v>11.34</v>
+      <c r="D54">
+        <v>0.35</v>
+      </c>
+      <c r="E54">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:130">
+      <c r="A55" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>3.5</v>
+      </c>
+      <c r="E55">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:130">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" s="6">
+        <v>60.52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:130">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E57" s="6">
+        <v>230.03</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
